--- a/DownloadExcel/CaseJourneyDetails.xlsx
+++ b/DownloadExcel/CaseJourneyDetails.xlsx
@@ -318,7 +318,7 @@
     <row r="2">
       <c t="inlineStr" r="A2">
         <is>
-          <t>CASE11528</t>
+          <t>CASE11535</t>
         </is>
       </c>
       <c t="inlineStr" r="B2">
@@ -348,17 +348,17 @@
       </c>
       <c t="inlineStr" r="G2">
         <is>
-          <t>09-May-2024 07:26:12 PM</t>
+          <t>10-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H2">
         <is>
-          <t>16-May-2024 07:26:12 PM</t>
+          <t>17-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I2">
         <is>
-          <t>09-May-2024 07:26:13 PM</t>
+          <t>09-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J2">
@@ -383,12 +383,12 @@
       </c>
       <c t="inlineStr" r="N2">
         <is>
-          <t>09-May-2024 07:27:00 PM</t>
+          <t>09-May-2024 09:51:53 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O2">
         <is>
-          <t>09-May-2024 07:27:03 PM</t>
+          <t>09-May-2024 09:51:56 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P2">
@@ -403,7 +403,7 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t>CASE11528</t>
+          <t>CASE11535</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
@@ -433,17 +433,17 @@
       </c>
       <c t="inlineStr" r="G3">
         <is>
-          <t>09-May-2024 07:26:12 PM</t>
+          <t>10-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t>16-May-2024 07:26:12 PM</t>
+          <t>17-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t>09-May-2024 07:26:13 PM</t>
+          <t>09-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -468,12 +468,12 @@
       </c>
       <c t="inlineStr" r="N3">
         <is>
-          <t>09-May-2024 07:26:45 PM</t>
+          <t>09-May-2024 09:51:34 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O3">
         <is>
-          <t>09-May-2024 07:26:45 PM</t>
+          <t>09-May-2024 09:51:34 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P3">
@@ -488,7 +488,7 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>CASE11528</t>
+          <t>CASE11535</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
@@ -518,17 +518,17 @@
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t>09-May-2024 07:26:12 PM</t>
+          <t>10-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t>16-May-2024 07:26:12 PM</t>
+          <t>17-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t>09-May-2024 07:26:13 PM</t>
+          <t>09-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -553,12 +553,12 @@
       </c>
       <c t="inlineStr" r="N4">
         <is>
-          <t>09-May-2024 07:26:26 PM</t>
+          <t>09-May-2024 09:51:13 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O4">
         <is>
-          <t>09-May-2024 07:26:33 PM</t>
+          <t>09-May-2024 09:51:20 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P4">
@@ -573,7 +573,7 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t>CASE11528</t>
+          <t>CASE11535</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
@@ -603,17 +603,17 @@
       </c>
       <c t="inlineStr" r="G5">
         <is>
-          <t>09-May-2024 07:26:12 PM</t>
+          <t>10-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t>16-May-2024 07:26:12 PM</t>
+          <t>17-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t>09-May-2024 07:26:13 PM</t>
+          <t>09-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="M5">
@@ -623,12 +623,12 @@
       </c>
       <c t="inlineStr" r="N5">
         <is>
-          <t>09-May-2024 07:26:13 PM</t>
+          <t>09-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O5">
         <is>
-          <t>09-May-2024 07:26:13 PM</t>
+          <t>09-May-2024 09:51:01 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P5">

--- a/DownloadExcel/CaseJourneyDetails.xlsx
+++ b/DownloadExcel/CaseJourneyDetails.xlsx
@@ -318,7 +318,7 @@
     <row r="2">
       <c t="inlineStr" r="A2">
         <is>
-          <t>CASE11580</t>
+          <t>CASE11584</t>
         </is>
       </c>
       <c t="inlineStr" r="B2">
@@ -348,17 +348,17 @@
       </c>
       <c t="inlineStr" r="G2">
         <is>
-          <t>29-May-2024 09:22:55 PM</t>
+          <t>29-May-2024 01:27:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H2">
         <is>
-          <t>05-Jun-2024 09:22:55 PM</t>
+          <t>05-Jun-2024 01:27:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I2">
         <is>
-          <t>28-May-2024 09:22:55 PM</t>
+          <t>29-May-2024 01:27:44 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J2">
@@ -383,17 +383,17 @@
       </c>
       <c t="inlineStr" r="N2">
         <is>
-          <t>28-May-2024 09:48:12 PM</t>
+          <t>29-May-2024 01:28:34 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O2">
         <is>
-          <t>28-May-2024 09:48:14 PM</t>
+          <t>29-May-2024 01:28:37 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P2">
         <is>
-          <t>00:00:02</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="S2" s="65">
@@ -403,7 +403,7 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t>CASE11580</t>
+          <t>CASE11584</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
@@ -433,17 +433,17 @@
       </c>
       <c t="inlineStr" r="G3">
         <is>
-          <t>29-May-2024 09:22:55 PM</t>
+          <t>29-May-2024 01:27:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t>05-Jun-2024 09:22:55 PM</t>
+          <t>05-Jun-2024 01:27:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t>28-May-2024 09:22:55 PM</t>
+          <t>29-May-2024 01:27:44 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -468,12 +468,12 @@
       </c>
       <c t="inlineStr" r="N3">
         <is>
-          <t>28-May-2024 09:47:56 PM</t>
+          <t>29-May-2024 01:28:16 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O3">
         <is>
-          <t>28-May-2024 09:47:56 PM</t>
+          <t>29-May-2024 01:28:16 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P3">
@@ -488,7 +488,7 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>CASE11580</t>
+          <t>CASE11584</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
@@ -518,17 +518,17 @@
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t>29-May-2024 09:22:55 PM</t>
+          <t>29-May-2024 01:27:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t>05-Jun-2024 09:22:55 PM</t>
+          <t>05-Jun-2024 01:27:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t>28-May-2024 09:22:55 PM</t>
+          <t>29-May-2024 01:27:44 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -553,12 +553,12 @@
       </c>
       <c t="inlineStr" r="N4">
         <is>
-          <t>28-May-2024 09:47:35 PM</t>
+          <t>29-May-2024 01:27:55 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O4">
         <is>
-          <t>28-May-2024 09:47:40 PM</t>
+          <t>29-May-2024 01:28:00 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P4">
@@ -573,7 +573,7 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t>CASE11580</t>
+          <t>CASE11584</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
@@ -603,17 +603,17 @@
       </c>
       <c t="inlineStr" r="G5">
         <is>
-          <t>29-May-2024 09:22:55 PM</t>
+          <t>29-May-2024 01:27:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t>05-Jun-2024 09:22:55 PM</t>
+          <t>05-Jun-2024 01:27:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t>28-May-2024 09:22:55 PM</t>
+          <t>29-May-2024 01:27:44 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="M5">
@@ -623,12 +623,12 @@
       </c>
       <c t="inlineStr" r="N5">
         <is>
-          <t>28-May-2024 09:22:56 PM</t>
+          <t>29-May-2024 01:27:44 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O5">
         <is>
-          <t>28-May-2024 09:22:56 PM</t>
+          <t>29-May-2024 01:27:44 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P5">

--- a/DownloadExcel/CaseJourneyDetails.xlsx
+++ b/DownloadExcel/CaseJourneyDetails.xlsx
@@ -199,15 +199,15 @@
   <cols>
     <col min="1" max="1" width="11.700000000000001" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="10.4" customWidth="1"/>
+    <col min="3" max="3" width="16.900000000000002" customWidth="1"/>
+    <col min="4" max="4" width="28.6" customWidth="1"/>
     <col min="5" max="5" width="7.800000000000001" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="29.900000000000002" customWidth="1"/>
     <col min="8" max="8" width="29.900000000000002" customWidth="1"/>
     <col min="9" max="9" width="29.900000000000002" customWidth="1"/>
-    <col min="10" max="10" width="7.800000000000001" customWidth="1"/>
-    <col min="11" max="11" width="22.1" customWidth="1"/>
+    <col min="10" max="10" width="15.600000000000001" customWidth="1"/>
+    <col min="11" max="11" width="28.6" customWidth="1"/>
     <col min="12" max="12" width="52" customWidth="1"/>
     <col min="13" max="13" width="24.7" customWidth="1"/>
     <col min="14" max="14" width="29.900000000000002" customWidth="1"/>
@@ -318,7 +318,7 @@
     <row r="2">
       <c t="inlineStr" r="A2">
         <is>
-          <t>CASE11589</t>
+          <t>CASE11591</t>
         </is>
       </c>
       <c t="inlineStr" r="B2">
@@ -328,12 +328,12 @@
       </c>
       <c t="inlineStr" r="C2">
         <is>
-          <t>Processing</t>
+          <t>Authorization</t>
         </is>
       </c>
       <c t="inlineStr" r="D2">
         <is>
-          <t>Rejected</t>
+          <t>Completed</t>
         </is>
       </c>
       <c t="inlineStr" r="E2">
@@ -348,52 +348,52 @@
       </c>
       <c t="inlineStr" r="G2">
         <is>
-          <t>29-May-2024 06:04:09 PM</t>
+          <t>29-May-2024 06:45:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H2">
         <is>
-          <t>05-Jun-2024 06:04:09 PM</t>
+          <t>05-Jun-2024 06:45:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I2">
         <is>
-          <t>29-May-2024 06:04:09 PM</t>
+          <t>29-May-2024 06:45:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J2">
         <is>
-          <t>Reject</t>
+          <t>Completed</t>
         </is>
       </c>
       <c t="inlineStr" r="K2">
         <is>
-          <t>Reject</t>
+          <t>Completed on this team</t>
         </is>
       </c>
       <c t="inlineStr" r="L2">
         <is>
-          <t>The case has some data missing ,Hence rejecting the case.Case is rejected for testing purpose.Please ignore.</t>
+          <t>Authorization completed for the case.Hence the case is completed.</t>
         </is>
       </c>
       <c t="inlineStr" r="M2">
         <is>
-          <t>Debashree Panigrahi</t>
+          <t>TEST USER</t>
         </is>
       </c>
       <c t="inlineStr" r="N2">
         <is>
-          <t>29-May-2024 06:05:01 PM</t>
+          <t>29-May-2024 06:54:33 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O2">
         <is>
-          <t>29-May-2024 06:05:04 PM</t>
+          <t>29-May-2024 06:54:40 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P2">
         <is>
-          <t>00:00:03</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="S2" s="65">
@@ -403,7 +403,7 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t>CASE11589</t>
+          <t>CASE11591</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
@@ -413,7 +413,7 @@
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t>Processing</t>
+          <t>Authorization</t>
         </is>
       </c>
       <c t="inlineStr" r="D3">
@@ -433,17 +433,17 @@
       </c>
       <c t="inlineStr" r="G3">
         <is>
-          <t>29-May-2024 06:04:09 PM</t>
+          <t>29-May-2024 06:45:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t>05-Jun-2024 06:04:09 PM</t>
+          <t>05-Jun-2024 06:45:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t>29-May-2024 06:04:09 PM</t>
+          <t>29-May-2024 06:45:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -458,27 +458,27 @@
       </c>
       <c t="inlineStr" r="L3">
         <is>
-          <t>Case Updated</t>
+          <t>putting the case into pending state as I have to do some non core activity</t>
         </is>
       </c>
       <c t="inlineStr" r="M3">
         <is>
-          <t>Debashree Panigrahi</t>
+          <t>TEST USER</t>
         </is>
       </c>
       <c t="inlineStr" r="N3">
         <is>
-          <t>29-May-2024 06:04:46 PM</t>
+          <t>29-May-2024 06:54:09 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O3">
         <is>
-          <t>29-May-2024 06:04:46 PM</t>
+          <t>29-May-2024 06:54:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P3">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="S3" s="65">
@@ -488,7 +488,7 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>CASE11589</t>
+          <t>CASE11591</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
@@ -498,12 +498,12 @@
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t>Processing</t>
+          <t>Authorization</t>
         </is>
       </c>
       <c t="inlineStr" r="D4">
         <is>
-          <t>Pending</t>
+          <t>Sent For Authorization</t>
         </is>
       </c>
       <c t="inlineStr" r="E4">
@@ -518,52 +518,47 @@
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t>29-May-2024 06:04:09 PM</t>
+          <t>29-May-2024 06:45:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t>05-Jun-2024 06:04:09 PM</t>
+          <t>05-Jun-2024 06:45:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t>29-May-2024 06:04:09 PM</t>
+          <t>29-May-2024 06:45:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
         <is>
-          <t>Pend</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K4">
-        <is>
-          <t>Non Core activity</t>
+          <t>Reallocation</t>
         </is>
       </c>
       <c t="inlineStr" r="L4">
         <is>
-          <t>putting the case into pending state as I have to do some non core activity</t>
+          <t>Reallocation</t>
         </is>
       </c>
       <c t="inlineStr" r="M4">
         <is>
-          <t>Debashree Panigrahi</t>
+          <t>TEST USER</t>
         </is>
       </c>
       <c t="inlineStr" r="N4">
         <is>
-          <t>29-May-2024 06:04:19 PM</t>
+          <t>29-May-2024 06:53:57 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O4">
         <is>
-          <t>29-May-2024 06:04:24 PM</t>
+          <t>29-May-2024 06:53:57 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P4">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="S4" s="65">
@@ -573,7 +568,7 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t>CASE11589</t>
+          <t>CASE11591</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
@@ -583,60 +578,720 @@
       </c>
       <c t="inlineStr" r="C5">
         <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D5">
+        <is>
+          <t>Sent For Authorization</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E5">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F5">
+        <is>
+          <t>Worktype A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G5">
+        <is>
+          <t>29-May-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H5">
+        <is>
+          <t>05-Jun-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I5">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J5">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L5">
+        <is>
+          <t>Quality completed for the case.Hence the case is sent to authorization team</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M5">
+        <is>
+          <t>TEST USER</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N5">
+        <is>
+          <t>29-May-2024 06:53:30 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O5">
+        <is>
+          <t>29-May-2024 06:53:39 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P5">
+        <is>
+          <t>00:00:09</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="R5">
+        <is>
+          <t>View</t>
+        </is>
+      </c>
+      <c r="S5" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="inlineStr" r="A6">
+        <is>
+          <t>CASE11591</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B6">
+        <is>
+          <t>Case</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C6">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D6">
+        <is>
+          <t>Sent for QC</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E6">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F6">
+        <is>
+          <t>Worktype A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G6">
+        <is>
+          <t>29-May-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H6">
+        <is>
+          <t>05-Jun-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I6">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J6">
+        <is>
+          <t>Reallocation</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L6">
+        <is>
+          <t>Reallocation</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M6">
+        <is>
+          <t>TEST USER</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N6">
+        <is>
+          <t>29-May-2024 06:52:49 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O6">
+        <is>
+          <t>29-May-2024 06:52:49 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P6">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="S6" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="inlineStr" r="A7">
+        <is>
+          <t>CASE11591</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B7">
+        <is>
+          <t>Case</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C7">
+        <is>
           <t>Processing</t>
         </is>
       </c>
-      <c t="inlineStr" r="D5">
+      <c t="inlineStr" r="D7">
+        <is>
+          <t>Sent for QC</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E7">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F7">
+        <is>
+          <t>Worktype A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G7">
+        <is>
+          <t>29-May-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H7">
+        <is>
+          <t>05-Jun-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I7">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J7">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L7">
+        <is>
+          <t>The case is processed.hence it is sent for quality.The testing is in progress</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M7">
+        <is>
+          <t>Debashree Panigrahi</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N7">
+        <is>
+          <t>29-May-2024 06:52:26 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O7">
+        <is>
+          <t>29-May-2024 06:52:33 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P7">
+        <is>
+          <t>00:00:07</t>
+        </is>
+      </c>
+      <c r="S7" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="inlineStr" r="A8">
+        <is>
+          <t>CASE11591</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B8">
+        <is>
+          <t>Case</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
+        <is>
+          <t>Processing</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D8">
+        <is>
+          <t>Rework</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E8">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F8">
+        <is>
+          <t>Worktype A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G8">
+        <is>
+          <t>29-May-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H8">
+        <is>
+          <t>05-Jun-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J8">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L8">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M8">
+        <is>
+          <t>Debashree Panigrahi</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N8">
+        <is>
+          <t>29-May-2024 06:51:51 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O8">
+        <is>
+          <t>29-May-2024 06:51:51 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P8">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="S8" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="inlineStr" r="A9">
+        <is>
+          <t>CASE11591</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
+          <t>Case</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C9">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D9">
+        <is>
+          <t>Rework</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E9">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F9">
+        <is>
+          <t>Worktype A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G9">
+        <is>
+          <t>29-May-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H9">
+        <is>
+          <t>05-Jun-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I9">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J9">
+        <is>
+          <t>Rework</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L9">
+        <is>
+          <t>As the desired quality is not achieved for the case, the case is put on rework state.</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M9">
+        <is>
+          <t>Tejas Local</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N9">
+        <is>
+          <t>29-May-2024 06:51:14 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O9">
+        <is>
+          <t>29-May-2024 06:51:32 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P9">
+        <is>
+          <t>00:00:18</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="R9">
+        <is>
+          <t>View</t>
+        </is>
+      </c>
+      <c r="S9" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="inlineStr" r="A10">
+        <is>
+          <t>CASE11591</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
+          <t>Case</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D10">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E10">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F10">
+        <is>
+          <t>Worktype A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G10">
+        <is>
+          <t>29-May-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H10">
+        <is>
+          <t>05-Jun-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J10">
+        <is>
+          <t>Pend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K10">
+        <is>
+          <t>Non Core activity</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L10">
+        <is>
+          <t>putting the case into pending state as I have to do some non core activity</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M10">
+        <is>
+          <t>Tejas Local</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N10">
+        <is>
+          <t>29-May-2024 06:50:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O10">
+        <is>
+          <t>29-May-2024 06:51:04 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P10">
+        <is>
+          <t>00:00:16</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="R10">
+        <is>
+          <t>View</t>
+        </is>
+      </c>
+      <c r="S10" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="inlineStr" r="A11">
+        <is>
+          <t>CASE11591</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t>Case</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D11">
+        <is>
+          <t>Sent for QC</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E11">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t>Worktype A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G11">
+        <is>
+          <t>29-May-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H11">
+        <is>
+          <t>05-Jun-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I11">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J11">
+        <is>
+          <t>Reallocation</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L11">
+        <is>
+          <t>Reallocation</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M11">
+        <is>
+          <t>Tejas Local</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N11">
+        <is>
+          <t>29-May-2024 06:50:12 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O11">
+        <is>
+          <t>29-May-2024 06:50:12 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P11">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="S11" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="inlineStr" r="A12">
+        <is>
+          <t>CASE11591</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t>Case</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t>Processing</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D12">
+        <is>
+          <t>Sent for QC</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E12">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t>Worktype A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G12">
+        <is>
+          <t>29-May-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
+        <is>
+          <t>05-Jun-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J12">
+        <is>
+          <t>Processed</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L12">
+        <is>
+          <t>The case is processed.hence it is sent for quality.The testing is in progress</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M12">
+        <is>
+          <t>Debashree Panigrahi</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N12">
+        <is>
+          <t>29-May-2024 06:49:32 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O12">
+        <is>
+          <t>29-May-2024 06:49:39 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P12">
+        <is>
+          <t>00:00:07</t>
+        </is>
+      </c>
+      <c r="S12" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="inlineStr" r="A13">
+        <is>
+          <t>CASE11591</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t>Case</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t>Processing</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D13">
         <is>
           <t>New</t>
         </is>
       </c>
-      <c t="inlineStr" r="E5">
+      <c t="inlineStr" r="E13">
         <is>
           <t>Team A</t>
         </is>
       </c>
-      <c t="inlineStr" r="F5">
+      <c t="inlineStr" r="F13">
         <is>
           <t>Worktype A</t>
         </is>
       </c>
-      <c t="inlineStr" r="G5">
-        <is>
-          <t>29-May-2024 06:04:09 PM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H5">
-        <is>
-          <t>05-Jun-2024 06:04:09 PM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I5">
-        <is>
-          <t>29-May-2024 06:04:09 PM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M5">
+      <c t="inlineStr" r="G13">
+        <is>
+          <t>29-May-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t>05-Jun-2024 06:45:47 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M13">
         <is>
           <t>Debashree Panigrahi</t>
         </is>
       </c>
-      <c t="inlineStr" r="N5">
-        <is>
-          <t>29-May-2024 06:04:09 PM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="O5">
-        <is>
-          <t>29-May-2024 06:04:09 PM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="P5">
+      <c t="inlineStr" r="N13">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O13">
+        <is>
+          <t>29-May-2024 06:45:48 PM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P13">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="S5" s="65">
+      <c r="S13" s="65">
         <v>11</v>
       </c>
     </row>

--- a/DownloadExcel/CaseJourneyDetails.xlsx
+++ b/DownloadExcel/CaseJourneyDetails.xlsx
@@ -318,7 +318,7 @@
     <row r="2">
       <c t="inlineStr" r="A2">
         <is>
-          <t>CASE11600</t>
+          <t>CASE11611</t>
         </is>
       </c>
       <c t="inlineStr" r="B2">
@@ -348,17 +348,17 @@
       </c>
       <c t="inlineStr" r="G2">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>31-May-2024 11:22:50 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H2">
         <is>
-          <t>06-Jun-2024 07:56:44 PM</t>
+          <t>07-Jun-2024 11:22:50 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I2">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>30-May-2024 11:22:51 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J2">
@@ -383,17 +383,17 @@
       </c>
       <c t="inlineStr" r="N2">
         <is>
-          <t>30-May-2024 07:57:45 PM</t>
+          <t>30-May-2024 11:23:40 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O2">
         <is>
-          <t>30-May-2024 07:57:49 PM</t>
+          <t>30-May-2024 11:23:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P2">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="S2" s="65">
@@ -403,7 +403,7 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t>CASE11600</t>
+          <t>CASE11611</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
@@ -433,17 +433,17 @@
       </c>
       <c t="inlineStr" r="G3">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>31-May-2024 11:22:50 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t>06-Jun-2024 07:56:44 PM</t>
+          <t>07-Jun-2024 11:22:50 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>30-May-2024 11:22:51 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -468,12 +468,12 @@
       </c>
       <c t="inlineStr" r="N3">
         <is>
-          <t>30-May-2024 07:57:28 PM</t>
+          <t>30-May-2024 11:23:27 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O3">
         <is>
-          <t>30-May-2024 07:57:28 PM</t>
+          <t>30-May-2024 11:23:27 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P3">
@@ -488,7 +488,7 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>CASE11600</t>
+          <t>CASE11611</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
@@ -518,17 +518,17 @@
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>31-May-2024 11:22:50 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t>06-Jun-2024 07:56:44 PM</t>
+          <t>07-Jun-2024 11:22:50 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>30-May-2024 11:22:51 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -553,17 +553,17 @@
       </c>
       <c t="inlineStr" r="N4">
         <is>
-          <t>30-May-2024 07:56:57 PM</t>
+          <t>30-May-2024 11:23:06 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O4">
         <is>
-          <t>30-May-2024 07:57:04 PM</t>
+          <t>30-May-2024 11:23:11 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P4">
         <is>
-          <t>00:00:07</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="S4" s="65">
@@ -573,7 +573,7 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t>CASE11600</t>
+          <t>CASE11611</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
@@ -603,17 +603,17 @@
       </c>
       <c t="inlineStr" r="G5">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>31-May-2024 11:22:50 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t>06-Jun-2024 07:56:44 PM</t>
+          <t>07-Jun-2024 11:22:50 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>30-May-2024 11:22:51 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="M5">
@@ -623,12 +623,12 @@
       </c>
       <c t="inlineStr" r="N5">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>30-May-2024 11:22:51 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O5">
         <is>
-          <t>30-May-2024 07:56:44 PM</t>
+          <t>30-May-2024 11:22:51 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P5">

--- a/DownloadExcel/CaseJourneyDetails.xlsx
+++ b/DownloadExcel/CaseJourneyDetails.xlsx
@@ -197,7 +197,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="11.700000000000001" customWidth="1"/>
+    <col min="1" max="1" width="9.1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.4" customWidth="1"/>
@@ -318,7 +318,7 @@
     <row r="2">
       <c t="inlineStr" r="A2">
         <is>
-          <t>CASE11692</t>
+          <t>CASE329</t>
         </is>
       </c>
       <c t="inlineStr" r="B2">
@@ -348,17 +348,17 @@
       </c>
       <c t="inlineStr" r="G2">
         <is>
-          <t>01-Jul-2024 01:00:16 PM</t>
+          <t>17-Sep-2024 07:06:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H2">
         <is>
-          <t>08-Jul-2024 01:00:16 PM</t>
+          <t>24-Sep-2024 07:06:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I2">
         <is>
-          <t>01-Jul-2024 01:00:17 PM</t>
+          <t>17-Sep-2024 07:06:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J2">
@@ -383,17 +383,17 @@
       </c>
       <c t="inlineStr" r="N2">
         <is>
-          <t>01-Jul-2024 01:01:01 PM</t>
+          <t>17-Sep-2024 07:07:32 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O2">
         <is>
-          <t>01-Jul-2024 01:01:04 PM</t>
+          <t>17-Sep-2024 07:07:34 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P2">
         <is>
-          <t>00:00:03</t>
+          <t>00:00:02</t>
         </is>
       </c>
       <c r="S2" s="65">
@@ -403,7 +403,7 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t>CASE11692</t>
+          <t>CASE329</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
@@ -433,17 +433,17 @@
       </c>
       <c t="inlineStr" r="G3">
         <is>
-          <t>01-Jul-2024 01:00:16 PM</t>
+          <t>17-Sep-2024 07:06:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t>08-Jul-2024 01:00:16 PM</t>
+          <t>24-Sep-2024 07:06:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t>01-Jul-2024 01:00:17 PM</t>
+          <t>17-Sep-2024 07:06:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -468,12 +468,12 @@
       </c>
       <c t="inlineStr" r="N3">
         <is>
-          <t>01-Jul-2024 01:00:47 PM</t>
+          <t>17-Sep-2024 07:07:18 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O3">
         <is>
-          <t>01-Jul-2024 01:00:47 PM</t>
+          <t>17-Sep-2024 07:07:18 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P3">
@@ -488,7 +488,7 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>CASE11692</t>
+          <t>CASE329</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
@@ -518,17 +518,17 @@
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t>01-Jul-2024 01:00:16 PM</t>
+          <t>17-Sep-2024 07:06:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t>08-Jul-2024 01:00:16 PM</t>
+          <t>24-Sep-2024 07:06:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t>01-Jul-2024 01:00:17 PM</t>
+          <t>17-Sep-2024 07:06:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -553,12 +553,12 @@
       </c>
       <c t="inlineStr" r="N4">
         <is>
-          <t>01-Jul-2024 01:00:27 PM</t>
+          <t>17-Sep-2024 07:06:58 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O4">
         <is>
-          <t>01-Jul-2024 01:00:32 PM</t>
+          <t>17-Sep-2024 07:07:03 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P4">
@@ -573,7 +573,7 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t>CASE11692</t>
+          <t>CASE329</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
@@ -603,17 +603,17 @@
       </c>
       <c t="inlineStr" r="G5">
         <is>
-          <t>01-Jul-2024 01:00:16 PM</t>
+          <t>17-Sep-2024 07:06:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t>08-Jul-2024 01:00:16 PM</t>
+          <t>24-Sep-2024 07:06:47 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t>01-Jul-2024 01:00:17 PM</t>
+          <t>17-Sep-2024 07:06:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="M5">
@@ -623,12 +623,12 @@
       </c>
       <c t="inlineStr" r="N5">
         <is>
-          <t>01-Jul-2024 01:00:17 PM</t>
+          <t>17-Sep-2024 07:06:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O5">
         <is>
-          <t>01-Jul-2024 01:00:17 PM</t>
+          <t>17-Sep-2024 07:06:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P5">

--- a/DownloadExcel/CaseJourneyDetails.xlsx
+++ b/DownloadExcel/CaseJourneyDetails.xlsx
@@ -318,7 +318,7 @@
     <row r="2">
       <c t="inlineStr" r="A2">
         <is>
-          <t>CASE329</t>
+          <t>CASE383</t>
         </is>
       </c>
       <c t="inlineStr" r="B2">
@@ -348,17 +348,17 @@
       </c>
       <c t="inlineStr" r="G2">
         <is>
-          <t>17-Sep-2024 07:06:47 PM</t>
+          <t>22-Oct-2024 09:06:52 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="H2">
         <is>
-          <t>24-Sep-2024 07:06:47 PM</t>
+          <t>29-Oct-2024 09:06:52 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="I2">
         <is>
-          <t>17-Sep-2024 07:06:48 PM</t>
+          <t>22-Oct-2024 09:06:53 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="J2">
@@ -383,12 +383,12 @@
       </c>
       <c t="inlineStr" r="N2">
         <is>
-          <t>17-Sep-2024 07:07:32 PM</t>
+          <t>22-Oct-2024 09:07:39 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="O2">
         <is>
-          <t>17-Sep-2024 07:07:34 PM</t>
+          <t>22-Oct-2024 09:07:41 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="P2">
@@ -403,7 +403,7 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t>CASE329</t>
+          <t>CASE383</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
@@ -433,17 +433,17 @@
       </c>
       <c t="inlineStr" r="G3">
         <is>
-          <t>17-Sep-2024 07:06:47 PM</t>
+          <t>22-Oct-2024 09:06:52 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t>24-Sep-2024 07:06:47 PM</t>
+          <t>29-Oct-2024 09:06:52 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t>17-Sep-2024 07:06:48 PM</t>
+          <t>22-Oct-2024 09:06:53 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -468,12 +468,12 @@
       </c>
       <c t="inlineStr" r="N3">
         <is>
-          <t>17-Sep-2024 07:07:18 PM</t>
+          <t>22-Oct-2024 09:07:25 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="O3">
         <is>
-          <t>17-Sep-2024 07:07:18 PM</t>
+          <t>22-Oct-2024 09:07:25 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="P3">
@@ -488,7 +488,7 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>CASE329</t>
+          <t>CASE383</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
@@ -518,17 +518,17 @@
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t>17-Sep-2024 07:06:47 PM</t>
+          <t>22-Oct-2024 09:06:52 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t>24-Sep-2024 07:06:47 PM</t>
+          <t>29-Oct-2024 09:06:52 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t>17-Sep-2024 07:06:48 PM</t>
+          <t>22-Oct-2024 09:06:53 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -553,12 +553,12 @@
       </c>
       <c t="inlineStr" r="N4">
         <is>
-          <t>17-Sep-2024 07:06:58 PM</t>
+          <t>22-Oct-2024 09:07:04 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="O4">
         <is>
-          <t>17-Sep-2024 07:07:03 PM</t>
+          <t>22-Oct-2024 09:07:09 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="P4">
@@ -573,7 +573,7 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t>CASE329</t>
+          <t>CASE383</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
@@ -603,17 +603,17 @@
       </c>
       <c t="inlineStr" r="G5">
         <is>
-          <t>17-Sep-2024 07:06:47 PM</t>
+          <t>22-Oct-2024 09:06:52 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t>24-Sep-2024 07:06:47 PM</t>
+          <t>29-Oct-2024 09:06:52 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t>17-Sep-2024 07:06:48 PM</t>
+          <t>22-Oct-2024 09:06:53 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="M5">
@@ -623,12 +623,12 @@
       </c>
       <c t="inlineStr" r="N5">
         <is>
-          <t>17-Sep-2024 07:06:48 PM</t>
+          <t>22-Oct-2024 09:06:53 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="O5">
         <is>
-          <t>17-Sep-2024 07:06:48 PM</t>
+          <t>22-Oct-2024 09:06:53 AM</t>
         </is>
       </c>
       <c t="inlineStr" r="P5">

--- a/DownloadExcel/CaseJourneyDetails.xlsx
+++ b/DownloadExcel/CaseJourneyDetails.xlsx
@@ -318,7 +318,7 @@
     <row r="2">
       <c t="inlineStr" r="A2">
         <is>
-          <t>CASE383</t>
+          <t>CASE416</t>
         </is>
       </c>
       <c t="inlineStr" r="B2">
@@ -348,17 +348,17 @@
       </c>
       <c t="inlineStr" r="G2">
         <is>
-          <t>22-Oct-2024 09:06:52 AM</t>
+          <t>24-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H2">
         <is>
-          <t>29-Oct-2024 09:06:52 AM</t>
+          <t>31-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I2">
         <is>
-          <t>22-Oct-2024 09:06:53 AM</t>
+          <t>24-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J2">
@@ -383,17 +383,17 @@
       </c>
       <c t="inlineStr" r="N2">
         <is>
-          <t>22-Oct-2024 09:07:39 AM</t>
+          <t>24-Oct-2024 05:13:52 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O2">
         <is>
-          <t>22-Oct-2024 09:07:41 AM</t>
+          <t>24-Oct-2024 05:13:55 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P2">
         <is>
-          <t>00:00:02</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="S2" s="65">
@@ -403,7 +403,7 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t>CASE383</t>
+          <t>CASE416</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
@@ -433,17 +433,17 @@
       </c>
       <c t="inlineStr" r="G3">
         <is>
-          <t>22-Oct-2024 09:06:52 AM</t>
+          <t>24-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t>29-Oct-2024 09:06:52 AM</t>
+          <t>31-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t>22-Oct-2024 09:06:53 AM</t>
+          <t>24-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -458,7 +458,7 @@
       </c>
       <c t="inlineStr" r="L3">
         <is>
-          <t>Case Updated</t>
+          <t>putting the case into pending state as I have to do some non core activity</t>
         </is>
       </c>
       <c t="inlineStr" r="M3">
@@ -468,17 +468,17 @@
       </c>
       <c t="inlineStr" r="N3">
         <is>
-          <t>22-Oct-2024 09:07:25 AM</t>
+          <t>24-Oct-2024 05:13:29 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O3">
         <is>
-          <t>22-Oct-2024 09:07:25 AM</t>
+          <t>24-Oct-2024 05:13:35 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P3">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="S3" s="65">
@@ -488,7 +488,7 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>CASE383</t>
+          <t>CASE416</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
@@ -503,7 +503,7 @@
       </c>
       <c t="inlineStr" r="D4">
         <is>
-          <t>Pending</t>
+          <t>New</t>
         </is>
       </c>
       <c t="inlineStr" r="E4">
@@ -518,32 +518,17 @@
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t>22-Oct-2024 09:06:52 AM</t>
+          <t>24-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t>29-Oct-2024 09:06:52 AM</t>
+          <t>31-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t>22-Oct-2024 09:06:53 AM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J4">
-        <is>
-          <t>Pend</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K4">
-        <is>
-          <t>Non Core activity</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="L4">
-        <is>
-          <t>putting the case into pending state as I have to do some non core activity</t>
+          <t>24-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="M4">
@@ -553,90 +538,20 @@
       </c>
       <c t="inlineStr" r="N4">
         <is>
-          <t>22-Oct-2024 09:07:04 AM</t>
+          <t>24-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O4">
         <is>
-          <t>22-Oct-2024 09:07:09 AM</t>
+          <t>24-Oct-2024 05:13:19 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P4">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="S4" s="65">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="inlineStr" r="A5">
-        <is>
-          <t>CASE383</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B5">
-        <is>
-          <t>Case</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C5">
-        <is>
-          <t>Processing</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="D5">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="E5">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F5">
-        <is>
-          <t>Worktype A</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G5">
-        <is>
-          <t>22-Oct-2024 09:06:52 AM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H5">
-        <is>
-          <t>29-Oct-2024 09:06:52 AM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I5">
-        <is>
-          <t>22-Oct-2024 09:06:53 AM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="M5">
-        <is>
-          <t>Debashree Panigrahi</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="N5">
-        <is>
-          <t>22-Oct-2024 09:06:53 AM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="O5">
-        <is>
-          <t>22-Oct-2024 09:06:53 AM</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="P5">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="S5" s="65">
         <v>11</v>
       </c>
     </row>

--- a/DownloadExcel/CaseJourneyDetails.xlsx
+++ b/DownloadExcel/CaseJourneyDetails.xlsx
@@ -318,7 +318,7 @@
     <row r="2">
       <c t="inlineStr" r="A2">
         <is>
-          <t>CASE416</t>
+          <t>CASE423</t>
         </is>
       </c>
       <c t="inlineStr" r="B2">
@@ -348,17 +348,17 @@
       </c>
       <c t="inlineStr" r="G2">
         <is>
-          <t>24-Oct-2024 05:13:19 PM</t>
+          <t>24-Oct-2024 06:07:32 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H2">
         <is>
-          <t>31-Oct-2024 05:13:19 PM</t>
+          <t>31-Oct-2024 06:07:32 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I2">
         <is>
-          <t>24-Oct-2024 05:13:19 PM</t>
+          <t>24-Oct-2024 06:07:33 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J2">
@@ -383,12 +383,12 @@
       </c>
       <c t="inlineStr" r="N2">
         <is>
-          <t>24-Oct-2024 05:13:52 PM</t>
+          <t>24-Oct-2024 06:08:06 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O2">
         <is>
-          <t>24-Oct-2024 05:13:55 PM</t>
+          <t>24-Oct-2024 06:08:09 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P2">
@@ -403,7 +403,7 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t>CASE416</t>
+          <t>CASE423</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
@@ -433,17 +433,17 @@
       </c>
       <c t="inlineStr" r="G3">
         <is>
-          <t>24-Oct-2024 05:13:19 PM</t>
+          <t>24-Oct-2024 06:07:32 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t>31-Oct-2024 05:13:19 PM</t>
+          <t>31-Oct-2024 06:07:32 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t>24-Oct-2024 05:13:19 PM</t>
+          <t>24-Oct-2024 06:07:33 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -468,17 +468,17 @@
       </c>
       <c t="inlineStr" r="N3">
         <is>
-          <t>24-Oct-2024 05:13:29 PM</t>
+          <t>24-Oct-2024 06:07:43 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O3">
         <is>
-          <t>24-Oct-2024 05:13:35 PM</t>
+          <t>24-Oct-2024 06:07:48 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P3">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="S3" s="65">
@@ -488,7 +488,7 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>CASE416</t>
+          <t>CASE423</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
@@ -518,17 +518,17 @@
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t>24-Oct-2024 05:13:19 PM</t>
+          <t>24-Oct-2024 06:07:32 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t>31-Oct-2024 05:13:19 PM</t>
+          <t>31-Oct-2024 06:07:32 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t>24-Oct-2024 05:13:19 PM</t>
+          <t>24-Oct-2024 06:07:33 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="M4">
@@ -538,12 +538,12 @@
       </c>
       <c t="inlineStr" r="N4">
         <is>
-          <t>24-Oct-2024 05:13:19 PM</t>
+          <t>24-Oct-2024 06:07:33 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="O4">
         <is>
-          <t>24-Oct-2024 05:13:19 PM</t>
+          <t>24-Oct-2024 06:07:33 PM</t>
         </is>
       </c>
       <c t="inlineStr" r="P4">
